--- a/PProjekty/Data_save/data/temp.xlsx
+++ b/PProjekty/Data_save/data/temp.xlsx
@@ -465,19 +465,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C2" t="n">
-        <v>505</v>
+        <v>371</v>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F2" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -485,19 +485,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>505</v>
+        <v>372</v>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F3" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>504</v>
+        <v>372</v>
       </c>
       <c r="D4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F4" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -525,19 +525,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>504</v>
+        <v>372</v>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F5" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>504</v>
+        <v>373</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -565,19 +565,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C7" t="n">
-        <v>503</v>
+        <v>373</v>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F7" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -585,19 +585,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>504</v>
+        <v>377</v>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F8" t="n">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -605,19 +605,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C9" t="n">
-        <v>504</v>
+        <v>379</v>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F9" t="n">
-        <v>54</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -625,19 +625,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F10" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -645,19 +645,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C11" t="n">
-        <v>503</v>
+        <v>462</v>
       </c>
       <c r="D11" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F11" t="n">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -665,19 +665,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C12" t="n">
-        <v>503</v>
+        <v>463</v>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F12" t="n">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -685,19 +685,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C13" t="n">
-        <v>503</v>
+        <v>463</v>
       </c>
       <c r="D13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F13" t="n">
-        <v>59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -705,19 +705,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C14" t="n">
-        <v>503</v>
+        <v>463</v>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E14" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -725,19 +725,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C15" t="n">
-        <v>502</v>
+        <v>464</v>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E15" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -745,19 +745,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16" t="n">
-        <v>502</v>
+        <v>464</v>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E16" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -765,19 +765,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C17" t="n">
-        <v>502</v>
+        <v>464</v>
       </c>
       <c r="D17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -785,19 +785,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C18" t="n">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="D18" t="n">
+        <v>12</v>
+      </c>
+      <c r="E18" t="n">
+        <v>59</v>
+      </c>
+      <c r="F18" t="n">
         <v>14</v>
-      </c>
-      <c r="E18" t="n">
-        <v>32</v>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -805,19 +805,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>465</v>
       </c>
       <c r="D19" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E19" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F19" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -825,19 +825,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C20" t="n">
-        <v>501</v>
+        <v>465</v>
       </c>
       <c r="D20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E20" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F20" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -845,19 +845,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C21" t="n">
-        <v>501</v>
+        <v>465</v>
       </c>
       <c r="D21" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E21" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F21" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
@@ -865,19 +865,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C22" t="n">
-        <v>501</v>
+        <v>465</v>
       </c>
       <c r="D22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F22" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -885,19 +885,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C23" t="n">
-        <v>500</v>
+        <v>466</v>
       </c>
       <c r="D23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E23" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -905,19 +905,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C24" t="n">
-        <v>501</v>
+        <v>466</v>
       </c>
       <c r="D24" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E24" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F24" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -925,19 +925,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C25" t="n">
-        <v>500</v>
+        <v>466</v>
       </c>
       <c r="D25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E25" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F25" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -945,19 +945,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C26" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="D26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E26" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F26" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -965,19 +965,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C27" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="D27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E27" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F27" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
@@ -985,19 +985,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C28" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="D28" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E28" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F28" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -1005,19 +1005,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C29" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="D29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E29" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F29" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
@@ -1025,19 +1025,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C30" t="n">
-        <v>500</v>
+        <v>468</v>
       </c>
       <c r="D30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E30" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F30" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
@@ -1045,19 +1045,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C31" t="n">
-        <v>500</v>
+        <v>468</v>
       </c>
       <c r="D31" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E31" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F31" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
@@ -1065,19 +1065,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C32" t="n">
-        <v>502</v>
+        <v>469</v>
       </c>
       <c r="D32" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E32" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F32" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -1085,19 +1085,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C33" t="n">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="D33" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E33" t="n">
+        <v>59</v>
+      </c>
+      <c r="F33" t="n">
         <v>32</v>
-      </c>
-      <c r="F33" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="34">
@@ -1105,19 +1105,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C34" t="n">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="D34" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E34" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F34" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -1125,19 +1125,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C35" t="n">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="D35" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E35" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F35" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -1145,19 +1145,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C36" t="n">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="D36" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E36" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F36" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
@@ -1165,19 +1165,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C37" t="n">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="D37" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E37" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F37" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
@@ -1185,19 +1185,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C38" t="n">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="D38" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E38" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F38" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
@@ -1205,19 +1205,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C39" t="n">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="D39" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E39" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F39" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40">
@@ -1225,19 +1225,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C40" t="n">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="D40" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E40" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F40" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41">
@@ -1245,19 +1245,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C41" t="n">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="D41" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E41" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F41" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42">
@@ -1265,19 +1265,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C42" t="n">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="D42" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E42" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F42" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43">
@@ -1285,19 +1285,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C43" t="n">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="D43" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E43" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F43" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44">
@@ -1305,19 +1305,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C44" t="n">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="D44" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E44" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F44" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45">
@@ -1325,19 +1325,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C45" t="n">
-        <v>502</v>
+        <v>469</v>
       </c>
       <c r="D45" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E45" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F45" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46">
@@ -1345,19 +1345,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C46" t="n">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="D46" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E46" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F46" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47">
@@ -1365,19 +1365,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C47" t="n">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="D47" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E47" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F47" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48">
@@ -1385,19 +1385,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C48" t="n">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="D48" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E48" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F48" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49">
@@ -1405,19 +1405,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C49" t="n">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="D49" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E49" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F49" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50">
@@ -1425,19 +1425,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C50" t="n">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="D50" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E50" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F50" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51">
@@ -1445,19 +1445,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C51" t="n">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="D51" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E51" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F51" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
